--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95835.60810596592</v>
+        <v>93354.68828050743</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10721426.73834738</v>
+        <v>10721426.73834739</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>271.2151482197585</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>173.4244441892126</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
         <v>322.3208221302866</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>114.1287833079525</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>62.85120273365028</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579955</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104938</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>25.78323141682399</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>203.2308565934514</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.81026481644597</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>16.82824115216617</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292088</v>
+        <v>62.01200608292093</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,16 +1844,16 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>239.1132486668492</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
@@ -1895,10 +1895,10 @@
         <v>35.29247858245685</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.028532975772</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V17" t="n">
         <v>253.8569752644159</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721225</v>
+        <v>133.9254590121752</v>
       </c>
       <c r="G19" t="n">
-        <v>154.5302192482722</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I19" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2056,7 +2056,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V19" t="n">
         <v>178.242360118109</v>
@@ -2065,7 +2065,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y19" t="n">
         <v>144.6893701463758</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>267.1640487096477</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245684</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2147,7 +2147,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.3904258901136</v>
+        <v>312.3426554503346</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2293,16 +2293,16 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V22" t="n">
-        <v>240.6420543130718</v>
+        <v>178.242360118109</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.027409325835</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074563</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721225</v>
+        <v>133.9254590121751</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>212.3165549998939</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -3029,7 +3029,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020903</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
@@ -3190,22 +3190,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3250,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
         <v>153.3104517307971</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621589</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.527117977508</v>
+        <v>230.7340562419009</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>163.106871388383</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247764</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533745</v>
+        <v>110.5480262953163</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3803,7 +3803,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
         <v>288.5532184279487</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>93.13769105450062</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G43" t="n">
-        <v>111.8803261135839</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
         <v>230.06753824203</v>
@@ -4040,7 +4040,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>93.13769105450039</v>
       </c>
       <c r="E46" t="n">
-        <v>90.95618068285802</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
         <v>154.4529230957231</v>
@@ -4198,10 +4198,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1756.224298825208</v>
+        <v>1401.191275526652</v>
       </c>
       <c r="C11" t="n">
-        <v>1414.45384914452</v>
+        <v>1059.420825845963</v>
       </c>
       <c r="D11" t="n">
-        <v>1083.380217797493</v>
+        <v>728.3471944989366</v>
       </c>
       <c r="E11" t="n">
-        <v>724.7840324589724</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="F11" t="n">
-        <v>724.7840324589724</v>
+        <v>454.3924993274633</v>
       </c>
       <c r="G11" t="n">
-        <v>336.9036495636926</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3150.429615357441</v>
+        <v>3099.267412142732</v>
       </c>
       <c r="V11" t="n">
-        <v>3150.429615357441</v>
+        <v>2795.396592058885</v>
       </c>
       <c r="W11" t="n">
-        <v>2824.85302734705</v>
+        <v>2469.820004048494</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.579336345694</v>
+        <v>2123.546313047138</v>
       </c>
       <c r="Y11" t="n">
-        <v>2115.632071629606</v>
+        <v>1760.59904833105</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>901.2692096237417</v>
+        <v>681.748511181978</v>
       </c>
       <c r="C13" t="n">
-        <v>759.5250939555584</v>
+        <v>681.748511181978</v>
       </c>
       <c r="D13" t="n">
-        <v>636.6005218029463</v>
+        <v>566.4669118810159</v>
       </c>
       <c r="E13" t="n">
-        <v>515.8794954802769</v>
+        <v>445.7458855583463</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420902</v>
+        <v>326.0480053201595</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003745</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.923822070506</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402573</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>1883.289170905035</v>
+        <v>1781.433743974333</v>
       </c>
       <c r="U13" t="n">
-        <v>1621.378371290402</v>
+        <v>1519.522944359701</v>
       </c>
       <c r="V13" t="n">
-        <v>1557.892307923079</v>
+        <v>1292.030523413538</v>
       </c>
       <c r="W13" t="n">
-        <v>1295.667205145842</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="X13" t="n">
-        <v>1094.869721507548</v>
+        <v>1029.805420636301</v>
       </c>
       <c r="Y13" t="n">
-        <v>901.2692096237417</v>
+        <v>836.2049087524941</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1798.247686674404</v>
+        <v>1884.431434724391</v>
       </c>
       <c r="C14" t="n">
-        <v>1798.247686674404</v>
+        <v>1542.660985043703</v>
       </c>
       <c r="D14" t="n">
-        <v>1467.174055327377</v>
+        <v>1211.587353696676</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.577869988856</v>
+        <v>852.9911683581549</v>
       </c>
       <c r="F14" t="n">
-        <v>724.7840324589722</v>
+        <v>469.1973308282709</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9036495636926</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>81.31694793299104</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039937</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573497</v>
+        <v>3099.267412142731</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.51231048965</v>
+        <v>2795.396592058884</v>
       </c>
       <c r="W14" t="n">
-        <v>2507.468642391848</v>
+        <v>2795.396592058884</v>
       </c>
       <c r="X14" t="n">
-        <v>2161.194951390492</v>
+        <v>2449.122901057528</v>
       </c>
       <c r="Y14" t="n">
-        <v>1798.247686674404</v>
+        <v>2243.839207528789</v>
       </c>
     </row>
     <row r="15">
@@ -5349,19 +5349,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609362</v>
+        <v>611.913149444742</v>
       </c>
       <c r="C16" t="n">
-        <v>276.568521892753</v>
+        <v>611.913149444742</v>
       </c>
       <c r="D16" t="n">
-        <v>153.6439497401409</v>
+        <v>488.9885772921299</v>
       </c>
       <c r="E16" t="n">
-        <v>153.6439497401409</v>
+        <v>445.7458855583461</v>
       </c>
       <c r="F16" t="n">
-        <v>153.6439497401409</v>
+        <v>326.0480053201594</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6457263541144</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5449,37 +5449,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162336</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376953</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
         <v>1229.392133430789</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535523</v>
+        <v>967.1670306535516</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152587</v>
+        <v>766.369547015258</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314523</v>
+        <v>766.369547015258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.976134084842</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.655317352227</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="D17" t="n">
-        <v>941.031318953274</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8847665628258</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628258</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.804105960555</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.382918824781</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.255963762464</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.431905709182</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.934273941167</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5659,13 +5659,13 @@
         <v>389.11095782431</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341967</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G19" t="n">
         <v>160.7715799803864</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604111</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666653</v>
+        <v>1830.862197398327</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934039</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535085</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144638</v>
+        <v>966.2289711446367</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628274</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
@@ -5750,22 +5750,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3158.620805936083</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2902.19961880031</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2624.072663737992</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X20" t="n">
-        <v>2325.248605684709</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522978</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
@@ -5832,13 +5832,13 @@
         <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
         <v>1685.951113992584</v>
@@ -5853,16 +5853,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199866</v>
@@ -5874,7 +5874,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5902,7 +5902,7 @@
         <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604111</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5944,7 +5944,7 @@
         <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
         <v>975.6272732356249</v>
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349346</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531241</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
         <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>613.9118195062365</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1064.946032754645</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1598.47793742657</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2145.256754485352</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2648.229225364689</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.88774112412</v>
       </c>
       <c r="S23" t="n">
         <v>3633.238772859012</v>
@@ -6026,13 +6026,13 @@
         <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,58 +6042,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061122</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6127,22 +6127,22 @@
         <v>544.7229287937439</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528789</v>
+        <v>469.2479895892051</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782828</v>
+        <v>395.976596214609</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.0617317963401</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,52 +6212,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>363.4548274582438</v>
       </c>
       <c r="K26" t="n">
-        <v>907.4660419013965</v>
+        <v>697.2742011480902</v>
       </c>
       <c r="L26" t="n">
-        <v>1771.984857554751</v>
+        <v>1561.793016801445</v>
       </c>
       <c r="M26" t="n">
-        <v>2305.516762226676</v>
+        <v>2095.32492147337</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2642.103738532152</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
@@ -6266,7 +6266,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,28 +6379,28 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6470,7 +6470,7 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N29" t="n">
         <v>2852.295579285458</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6619,7 +6619,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
@@ -6704,19 +6704,19 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1184.800837351327</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1718.332742023252</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2265.111559082034</v>
       </c>
       <c r="O32" t="n">
-        <v>3071.136282571878</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,10 +6859,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,13 +6877,13 @@
         <v>2189.856749167329</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570351</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909362</v>
+        <v>599.6022649647796</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368726</v>
+        <v>529.337516610716</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245368</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159871</v>
+        <v>428.6506527636737</v>
       </c>
       <c r="F37" t="n">
-        <v>183.08927069192</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1422.082050758175</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V37" t="n">
-        <v>1266.068997126132</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891711</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X37" t="n">
-        <v>748.6622761911538</v>
+        <v>804.7004397908627</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473325</v>
+        <v>682.5792952211759</v>
       </c>
     </row>
     <row r="38">
@@ -7166,52 +7166,52 @@
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7227,58 +7227,58 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811088</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999819</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387306</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332751</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601601</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927782</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064571</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T39" t="n">
         <v>2242.828302297192</v>
@@ -7290,7 +7290,7 @@
         <v>1779.608347199865</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X39" t="n">
         <v>1317.519490266131</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.4050786964422</v>
+        <v>543.5641013650705</v>
       </c>
       <c r="C40" t="n">
-        <v>482.1403303423786</v>
+        <v>473.2993530110069</v>
       </c>
       <c r="D40" t="n">
-        <v>430.6951255038863</v>
+        <v>421.8541481725146</v>
       </c>
       <c r="E40" t="n">
-        <v>381.4534664953366</v>
+        <v>372.6124891639648</v>
       </c>
       <c r="F40" t="n">
-        <v>333.2349535712696</v>
+        <v>324.3939762398977</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>886.8213698466992</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X40" t="n">
-        <v>757.5032535225253</v>
+        <v>847.333710764997</v>
       </c>
       <c r="Y40" t="n">
-        <v>635.3821089528385</v>
+        <v>626.5411316214669</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103806</v>
@@ -7394,49 +7394,49 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464979</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
         <v>3206.680274668176</v>
@@ -7445,7 +7445,7 @@
         <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049858</v>
@@ -7464,10 +7464,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D42" t="n">
         <v>618.1564155387305</v>
@@ -7476,46 +7476,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
         <v>2242.828302297192</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>543.5641013650707</v>
       </c>
       <c r="C43" t="n">
-        <v>670.6422221586943</v>
+        <v>473.299353011007</v>
       </c>
       <c r="D43" t="n">
-        <v>520.5255827463585</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E43" t="n">
-        <v>471.2839237378088</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F43" t="n">
-        <v>423.0654108137418</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7594,25 +7594,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429975</v>
+        <v>626.541131621467</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
         <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866012</v>
+        <v>543.5641013650704</v>
       </c>
       <c r="C46" t="n">
-        <v>670.6422221586943</v>
+        <v>473.2993530110068</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202019</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396067</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7831,25 +7831,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429975</v>
+        <v>725.2125661953102</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.235310843064</v>
+        <v>157.2353108430624</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729021</v>
+        <v>184.4039433728998</v>
       </c>
       <c r="L8" t="n">
-        <v>191.494890938962</v>
+        <v>191.4948909389591</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333085</v>
+        <v>181.0856325333053</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830259</v>
+        <v>179.3553748830227</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384007</v>
+        <v>182.8301554383977</v>
       </c>
       <c r="P8" t="n">
-        <v>190.89080355866</v>
+        <v>190.8908035586574</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266135</v>
+        <v>192.0103836266115</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875979</v>
+        <v>112.656200187597</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372542</v>
+        <v>113.6031223372526</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672286</v>
+        <v>105.9629718672265</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253607</v>
+        <v>104.1013981253582</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677797</v>
+        <v>92.30246558677544</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359749</v>
+        <v>106.8829608359726</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798334</v>
+        <v>105.3113487798316</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615465</v>
+        <v>120.8212784615452</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564665</v>
+        <v>116.1755252564652</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085235</v>
+        <v>119.1996074085222</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140785</v>
+        <v>108.4284123140772</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530931</v>
+        <v>120.669460053092</v>
       </c>
       <c r="P10" t="n">
-        <v>122.508085666271</v>
+        <v>122.50808566627</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>18.01571720695171</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>339.8144253784336</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>94.37250464901933</v>
       </c>
       <c r="K26" t="n">
-        <v>306.6874953089246</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473905</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10352,22 +10352,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>131.2335379367244</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>287.0017854473908</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719373</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>83.79507526537684</v>
       </c>
       <c r="F11" t="n">
         <v>379.955899154585</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579951</v>
+        <v>14.65678318579956</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104938</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524939</v>
       </c>
       <c r="U11" t="n">
-        <v>50.65058118256293</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.566543123133529</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271172</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292095</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>162.3662940030513</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.5375907134626</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>156.0869354754757</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>76.70355124299681</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2774205197356</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -23732,16 +23732,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.26435989843935</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0713557774109472</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>24.21355985564096</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.952229560221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1134260.694961808</v>
+        <v>1134260.694961806</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>942362.3804540898</v>
+        <v>942362.3804540897</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>942362.38045409</v>
+        <v>942362.3804540896</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>389156.2608905931</v>
+        <v>389156.2608905932</v>
       </c>
       <c r="C2" t="n">
         <v>389156.2608905931</v>
@@ -26320,7 +26320,7 @@
         <v>389166.8681578246</v>
       </c>
       <c r="E2" t="n">
-        <v>346531.5004298632</v>
+        <v>346531.5004298631</v>
       </c>
       <c r="F2" t="n">
         <v>346531.5004298632</v>
@@ -26332,28 +26332,28 @@
         <v>377402.1400921044</v>
       </c>
       <c r="I2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855342</v>
       </c>
       <c r="J2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="K2" t="n">
         <v>389994.8406855347</v>
       </c>
       <c r="L2" t="n">
-        <v>389994.8406855349</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="N2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="O2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26369,37 +26369,37 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552067</v>
+        <v>59764.55367552453</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163634</v>
+        <v>1089238.97216363</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983366</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179698</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954659</v>
+        <v>430603.4278954645</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364969</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364976</v>
+        <v>40024.16194364971</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509196</v>
+        <v>77052.32230509198</v>
       </c>
       <c r="H4" t="n">
         <v>77052.32230509196</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.5102775438</v>
+        <v>90617.51027754383</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699578</v>
+        <v>88960.9551969958</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699578</v>
       </c>
       <c r="L4" t="n">
-        <v>88960.95519699583</v>
+        <v>88960.95519699581</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818172</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818167</v>
       </c>
-      <c r="N4" t="n">
-        <v>92183.8989181817</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>92183.89891818172</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92183.89891818175</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.9054318663</v>
+        <v>35148.90543186641</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.49036482644</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.49036482643</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.49036482646</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
@@ -26500,10 +26500,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96871.32965837207</v>
+        <v>-96875.74323624006</v>
       </c>
       <c r="C6" t="n">
-        <v>-96871.32965837207</v>
+        <v>-96875.74323624017</v>
       </c>
       <c r="D6" t="n">
-        <v>-136350.0188450282</v>
+        <v>-136354.3765951766</v>
       </c>
       <c r="E6" t="n">
-        <v>-859301.124042247</v>
+        <v>-859529.8784646416</v>
       </c>
       <c r="F6" t="n">
-        <v>229937.8481213869</v>
+        <v>229709.0936989888</v>
       </c>
       <c r="G6" t="n">
-        <v>182251.0653669235</v>
+        <v>182184.787995379</v>
       </c>
       <c r="H6" t="n">
-        <v>219831.1746617975</v>
+        <v>219764.8972902532</v>
       </c>
       <c r="I6" t="n">
-        <v>190819.334276315</v>
+        <v>190819.3342763147</v>
       </c>
       <c r="J6" t="n">
-        <v>186246.5107919359</v>
+        <v>186246.5107919361</v>
       </c>
       <c r="K6" t="n">
         <v>211655.9438137328</v>
       </c>
       <c r="L6" t="n">
-        <v>174075.8345188589</v>
+        <v>174075.8345188586</v>
       </c>
       <c r="M6" t="n">
-        <v>13124.24446837872</v>
+        <v>13124.24446837866</v>
       </c>
       <c r="N6" t="n">
-        <v>215292.3444611028</v>
+        <v>215292.344461103</v>
       </c>
       <c r="O6" t="n">
         <v>215292.3444611028</v>
       </c>
       <c r="P6" t="n">
-        <v>215292.3444611028</v>
+        <v>215292.3444611031</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810488</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810489</v>
       </c>
-      <c r="N2" t="n">
-        <v>97.68472022810494</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790395</v>
+        <v>69.78465283790845</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26808,10 +26808,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.22193528103</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951231</v>
+        <v>50.70958360951226</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790395</v>
+        <v>69.78465283790845</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755394</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873716</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959717</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712645</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104731</v>
+        <v>199.6603204104724</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780181</v>
+        <v>132.246564378017</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.627234303657</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27947,10 +27947,10 @@
         <v>137.193414325031</v>
       </c>
       <c r="H9" t="n">
-        <v>110.7857668256562</v>
+        <v>110.7857668256561</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672124</v>
+        <v>84.22861846672092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.8382912698755</v>
+        <v>90.8382912698749</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.8950767192289</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519116</v>
+        <v>84.46220888519058</v>
       </c>
       <c r="K10" t="n">
-        <v>7.64903505099085</v>
+        <v>7.649035050989905</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317089</v>
+        <v>75.62456067317021</v>
       </c>
       <c r="R10" t="n">
-        <v>171.635114443788</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712637</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712644</v>
+        <v>26.9201465871264</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F19" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075605</v>
       </c>
       <c r="G19" t="n">
-        <v>11.49558901075605</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V22" t="n">
-        <v>11.49558901075616</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075596</v>
       </c>
       <c r="X22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075605</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075611</v>
       </c>
       <c r="G25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859176</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859114</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196371198</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>55.47778196371181</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,22 +30378,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565374</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>55.47778196371173</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G43" t="n">
-        <v>54.14548214544436</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371196</v>
       </c>
       <c r="E46" t="n">
-        <v>55.47778196371115</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413222</v>
+        <v>0.2805413179413403</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366567</v>
+        <v>2.873093772366752</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993283</v>
+        <v>10.81556915993353</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362232</v>
+        <v>23.81059368362385</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207849</v>
+        <v>35.68590767208079</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102524</v>
+        <v>44.2715240310281</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396423</v>
+        <v>49.2606006939674</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356501</v>
+        <v>50.05768871356825</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328599</v>
+        <v>47.26805598328904</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219660959</v>
+        <v>40.3421921966122</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783598</v>
+        <v>30.29530624783794</v>
       </c>
       <c r="R8" t="n">
-        <v>17.6225535631316</v>
+        <v>17.62255356313273</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587886</v>
+        <v>6.392835282588298</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288139</v>
+        <v>1.228069619288218</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530577</v>
+        <v>0.02244330543530722</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796425</v>
+        <v>0.1501028381796521</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840231</v>
+        <v>1.449677410840325</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693831</v>
+        <v>5.168014384694165</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906877</v>
+        <v>14.18142647906968</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710481</v>
+        <v>24.23831663710638</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264561</v>
+        <v>32.59140791264772</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665764</v>
+        <v>38.0326357966601</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655534</v>
+        <v>39.03924649655787</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360846958</v>
+        <v>35.71328360847188</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449682</v>
+        <v>28.66305863449866</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447506</v>
+        <v>19.1604956244763</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276763</v>
+        <v>9.31954288276823</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608708</v>
+        <v>2.788094384608888</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731889972</v>
+        <v>0.6050197731890363</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722344902</v>
+        <v>0.00987518672234554</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486792</v>
+        <v>0.1258411772486873</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466810985</v>
+        <v>1.118842466811057</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078464</v>
+        <v>3.784387403078708</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481622</v>
+        <v>8.896971231482196</v>
       </c>
       <c r="K10" t="n">
-        <v>14.620456774892</v>
+        <v>14.62045677489295</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477182</v>
+        <v>18.70915102477303</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390816</v>
+        <v>19.72617653908287</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115472</v>
+        <v>19.25713215115596</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874968</v>
+        <v>17.78707839875084</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287662</v>
+        <v>15.2199183828776</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.5374825785235</v>
+        <v>10.53748257852418</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381521</v>
+        <v>5.658276933381886</v>
       </c>
       <c r="S10" t="n">
-        <v>2.1930685162338</v>
+        <v>2.193068516233942</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625384</v>
+        <v>0.5376850300625732</v>
       </c>
       <c r="U10" t="n">
-        <v>0.00686406421356433</v>
+        <v>0.006864064213564773</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
@@ -35583,7 +35583,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019266</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35811,7 +35811,7 @@
         <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
         <v>371.7770927546665</v>
@@ -35820,7 +35820,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
         <v>105.3143851250201</v>
@@ -36358,7 +36358,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>355.2070037623522</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36370,10 +36370,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>847.8674262666527</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>250.7943048037195</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>285.1595056177319</v>
       </c>
       <c r="K26" t="n">
-        <v>643.8787818643251</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36613,7 +36613,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629113</v>
       </c>
       <c r="L28" t="n">
         <v>366.7325087887907</v>
@@ -36771,7 +36771,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>825.9229012776173</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,22 +37072,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>586.8236523290566</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>685.7637716667626</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629122</v>
@@ -37239,13 +37239,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412316</v>
+        <v>349.3282668412309</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882205</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
